--- a/Team-Data/2011-12/3-9-2011-12.xlsx
+++ b/Team-Data/2011-12/3-9-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,25 +733,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" t="n">
         <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>0.575</v>
+        <v>0.59</v>
       </c>
       <c r="H2" t="n">
         <v>48.8</v>
       </c>
       <c r="I2" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J2" t="n">
-        <v>80.90000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0.439</v>
@@ -696,34 +763,34 @@
         <v>19.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O2" t="n">
         <v>14.9</v>
       </c>
       <c r="P2" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="R2" t="n">
         <v>10.4</v>
       </c>
       <c r="S2" t="n">
-        <v>31.1</v>
+        <v>31.5</v>
       </c>
       <c r="T2" t="n">
-        <v>41.4</v>
+        <v>41.9</v>
       </c>
       <c r="U2" t="n">
         <v>21.4</v>
       </c>
       <c r="V2" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W2" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="X2" t="n">
         <v>4.9</v>
@@ -735,31 +802,31 @@
         <v>17.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.09999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>2</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ2" t="n">
         <v>19</v>
@@ -789,25 +856,25 @@
         <v>26</v>
       </c>
       <c r="AS2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AU2" t="n">
         <v>11</v>
       </c>
       <c r="AV2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -848,88 +915,88 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
         <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>0.538</v>
+        <v>0.526</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="J3" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L3" t="n">
         <v>5.6</v>
       </c>
       <c r="M3" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.367</v>
+        <v>0.365</v>
       </c>
       <c r="O3" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P3" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.762</v>
+        <v>0.764</v>
       </c>
       <c r="R3" t="n">
         <v>8.4</v>
       </c>
       <c r="S3" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="T3" t="n">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="W3" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA3" t="n">
         <v>19.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.8</v>
+        <v>90.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF3" t="n">
         <v>12</v>
@@ -947,31 +1014,31 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
         <v>28</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -980,19 +1047,19 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AX3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>21</v>
@@ -1001,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="BC3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -1030,46 +1097,46 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" t="n">
-        <v>0.132</v>
+        <v>0.135</v>
       </c>
       <c r="H4" t="n">
         <v>48.1</v>
       </c>
       <c r="I4" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="J4" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.414</v>
+        <v>0.416</v>
       </c>
       <c r="L4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="M4" t="n">
         <v>13.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3</v>
+        <v>0.303</v>
       </c>
       <c r="O4" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P4" t="n">
         <v>21.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.731</v>
+        <v>0.735</v>
       </c>
       <c r="R4" t="n">
         <v>10.5</v>
@@ -1078,37 +1145,37 @@
         <v>29.4</v>
       </c>
       <c r="T4" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U4" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V4" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W4" t="n">
         <v>5.9</v>
       </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.90000000000001</v>
+        <v>87.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>-13.3</v>
+        <v>-13.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1129,7 +1196,7 @@
         <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
         <v>26</v>
@@ -1138,10 +1205,10 @@
         <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
@@ -1150,7 +1217,7 @@
         <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
@@ -1159,10 +1226,10 @@
         <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
         <v>30</v>
@@ -1171,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="AY4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
         <v>15</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -1296,10 +1363,10 @@
         <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH5" t="n">
         <v>29</v>
@@ -1326,10 +1393,10 @@
         <v>22</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
@@ -1341,19 +1408,19 @@
         <v>2</v>
       </c>
       <c r="AU5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV5" t="n">
         <v>4</v>
       </c>
       <c r="AW5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
@@ -1362,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="BB5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="n">
         <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>0.395</v>
+        <v>0.378</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="J6" t="n">
-        <v>81.40000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="K6" t="n">
         <v>0.427</v>
@@ -1421,61 +1488,61 @@
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.357</v>
+        <v>0.359</v>
       </c>
       <c r="O6" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P6" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.694</v>
+        <v>0.695</v>
       </c>
       <c r="R6" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="S6" t="n">
         <v>30</v>
       </c>
       <c r="T6" t="n">
-        <v>42.9</v>
+        <v>42.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V6" t="n">
         <v>15.6</v>
       </c>
       <c r="W6" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X6" t="n">
         <v>4.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB6" t="n">
         <v>94.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.1</v>
+        <v>-4.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF6" t="n">
         <v>22</v>
@@ -1484,43 +1551,43 @@
         <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI6" t="n">
         <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM6" t="n">
         <v>15</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU6" t="n">
         <v>18</v>
@@ -1529,13 +1596,13 @@
         <v>24</v>
       </c>
       <c r="AW6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ6" t="n">
         <v>23</v>
@@ -1544,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="BB6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC6" t="n">
         <v>24</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="n">
         <v>23</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" t="n">
-        <v>0.548</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
@@ -1594,7 +1661,7 @@
         <v>35.7</v>
       </c>
       <c r="J7" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K7" t="n">
         <v>0.436</v>
@@ -1606,22 +1673,22 @@
         <v>22.3</v>
       </c>
       <c r="N7" t="n">
-        <v>0.326</v>
+        <v>0.327</v>
       </c>
       <c r="O7" t="n">
         <v>15.5</v>
       </c>
       <c r="P7" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R7" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="S7" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T7" t="n">
         <v>43</v>
@@ -1630,16 +1697,16 @@
         <v>21.5</v>
       </c>
       <c r="V7" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W7" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="X7" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z7" t="n">
         <v>19.4</v>
@@ -1648,34 +1715,34 @@
         <v>18.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH7" t="n">
         <v>13</v>
       </c>
-      <c r="AH7" t="n">
-        <v>14</v>
-      </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1687,16 +1754,16 @@
         <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS7" t="n">
         <v>6</v>
@@ -1708,7 +1775,7 @@
         <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
         <v>3</v>
@@ -1720,16 +1787,16 @@
         <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" t="n">
         <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="H8" t="n">
         <v>48.9</v>
@@ -1776,43 +1843,43 @@
         <v>38.3</v>
       </c>
       <c r="J8" t="n">
-        <v>81.8</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.468</v>
+        <v>0.466</v>
       </c>
       <c r="L8" t="n">
         <v>6.7</v>
       </c>
       <c r="M8" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.322</v>
+        <v>0.323</v>
       </c>
       <c r="O8" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="P8" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.734</v>
+        <v>0.736</v>
       </c>
       <c r="R8" t="n">
         <v>11</v>
       </c>
       <c r="S8" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="T8" t="n">
-        <v>43.6</v>
+        <v>43.8</v>
       </c>
       <c r="U8" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="V8" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W8" t="n">
         <v>8.6</v>
@@ -1821,31 +1888,31 @@
         <v>5.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.1</v>
+        <v>104</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
@@ -1854,13 +1921,13 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
       </c>
       <c r="AL8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
         <v>6</v>
@@ -1878,22 +1945,22 @@
         <v>22</v>
       </c>
       <c r="AR8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS8" t="n">
         <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AU8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV8" t="n">
         <v>23</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
         <v>10</v>
@@ -1902,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -1940,64 +2007,64 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
         <v>26</v>
       </c>
       <c r="G9" t="n">
-        <v>0.35</v>
+        <v>0.333</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="J9" t="n">
-        <v>79.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.428</v>
+        <v>0.425</v>
       </c>
       <c r="L9" t="n">
         <v>4.1</v>
       </c>
       <c r="M9" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.324</v>
+        <v>0.327</v>
       </c>
       <c r="O9" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="P9" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.768</v>
+        <v>0.771</v>
       </c>
       <c r="R9" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S9" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="T9" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U9" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="V9" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="W9" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X9" t="n">
         <v>3.8</v>
@@ -2006,19 +2073,19 @@
         <v>5.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB9" t="n">
         <v>89</v>
       </c>
       <c r="AC9" t="n">
-        <v>-6.5</v>
+        <v>-6.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2033,13 +2100,13 @@
         <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
         <v>27</v>
@@ -2051,13 +2118,13 @@
         <v>22</v>
       </c>
       <c r="AO9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP9" t="n">
         <v>14</v>
       </c>
-      <c r="AP9" t="n">
-        <v>16</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR9" t="n">
         <v>8</v>
@@ -2066,7 +2133,7 @@
         <v>29</v>
       </c>
       <c r="AT9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU9" t="n">
         <v>26</v>
@@ -2075,19 +2142,19 @@
         <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -2203,10 +2270,10 @@
         <v>30</v>
       </c>
       <c r="AE10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
@@ -2215,10 +2282,10 @@
         <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
         <v>8</v>
@@ -2233,7 +2300,7 @@
         <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
@@ -2245,19 +2312,19 @@
         <v>21</v>
       </c>
       <c r="AS10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU10" t="n">
         <v>6</v>
       </c>
       <c r="AV10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -2382,13 +2449,13 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG11" t="n">
         <v>15</v>
@@ -2397,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="AI11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ11" t="n">
         <v>5</v>
@@ -2406,16 +2473,16 @@
         <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP11" t="n">
         <v>27</v>
@@ -2427,10 +2494,10 @@
         <v>15</v>
       </c>
       <c r="AS11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU11" t="n">
         <v>19</v>
@@ -2445,10 +2512,10 @@
         <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA11" t="n">
         <v>24</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>3.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
@@ -2585,10 +2652,10 @@
         <v>20</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
         <v>22</v>
@@ -2609,13 +2676,13 @@
         <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT12" t="n">
         <v>4</v>
       </c>
       <c r="AU12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV12" t="n">
         <v>11</v>
@@ -2627,7 +2694,7 @@
         <v>6</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ12" t="n">
         <v>25</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -2668,94 +2735,94 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" t="n">
         <v>15</v>
       </c>
       <c r="G13" t="n">
-        <v>0.605</v>
+        <v>0.595</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J13" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L13" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="M13" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.362</v>
+        <v>0.357</v>
       </c>
       <c r="O13" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P13" t="n">
         <v>24.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.697</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R13" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S13" t="n">
         <v>31</v>
       </c>
       <c r="T13" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U13" t="n">
         <v>20.9</v>
       </c>
       <c r="V13" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W13" t="n">
         <v>7.8</v>
       </c>
       <c r="X13" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.3</v>
+        <v>97.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AD13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
         <v>6</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
         <v>5</v>
@@ -2767,7 +2834,7 @@
         <v>16</v>
       </c>
       <c r="AK13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL13" t="n">
         <v>5</v>
@@ -2776,7 +2843,7 @@
         <v>5</v>
       </c>
       <c r="AN13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO13" t="n">
         <v>15</v>
@@ -2785,10 +2852,10 @@
         <v>9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS13" t="n">
         <v>15</v>
@@ -2797,7 +2864,7 @@
         <v>11</v>
       </c>
       <c r="AU13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV13" t="n">
         <v>3</v>
@@ -2806,7 +2873,7 @@
         <v>15</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY13" t="n">
         <v>3</v>
@@ -2818,10 +2885,10 @@
         <v>4</v>
       </c>
       <c r="BB13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -2850,52 +2917,52 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" t="n">
         <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J14" t="n">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L14" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M14" t="n">
         <v>17.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.301</v>
+        <v>0.3</v>
       </c>
       <c r="O14" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P14" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q14" t="n">
         <v>0.748</v>
       </c>
       <c r="R14" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="S14" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="T14" t="n">
         <v>45.8</v>
@@ -2904,16 +2971,16 @@
         <v>21.2</v>
       </c>
       <c r="V14" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W14" t="n">
         <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z14" t="n">
         <v>18.1</v>
@@ -2922,13 +2989,13 @@
         <v>20</v>
       </c>
       <c r="AB14" t="n">
-        <v>94.3</v>
+        <v>94</v>
       </c>
       <c r="AC14" t="n">
         <v>2.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2940,16 +3007,16 @@
         <v>9</v>
       </c>
       <c r="AH14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI14" t="n">
         <v>16</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL14" t="n">
         <v>24</v>
@@ -2958,7 +3025,7 @@
         <v>18</v>
       </c>
       <c r="AN14" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO14" t="n">
         <v>11</v>
@@ -2967,7 +3034,7 @@
         <v>12</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR14" t="n">
         <v>14</v>
@@ -2997,10 +3064,10 @@
         <v>5</v>
       </c>
       <c r="BA14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BC14" t="n">
         <v>11</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -3110,10 +3177,10 @@
         <v>2.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF15" t="n">
         <v>6</v>
@@ -3122,7 +3189,7 @@
         <v>7</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
@@ -3152,13 +3219,13 @@
         <v>12</v>
       </c>
       <c r="AR15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU15" t="n">
         <v>24</v>
@@ -3173,7 +3240,7 @@
         <v>13</v>
       </c>
       <c r="AY15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ15" t="n">
         <v>11</v>
@@ -3185,7 +3252,7 @@
         <v>18</v>
       </c>
       <c r="BC15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -3292,13 +3359,13 @@
         <v>9.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
@@ -3328,7 +3395,7 @@
         <v>5</v>
       </c>
       <c r="AP16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ16" t="n">
         <v>5</v>
@@ -3358,7 +3425,7 @@
         <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -3396,37 +3463,37 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" t="n">
         <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4</v>
+        <v>0.385</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J17" t="n">
-        <v>85.40000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
       <c r="L17" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M17" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.335</v>
+        <v>0.33</v>
       </c>
       <c r="O17" t="n">
         <v>16.7</v>
@@ -3435,22 +3502,22 @@
         <v>21.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.792</v>
+        <v>0.793</v>
       </c>
       <c r="R17" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.4</v>
+        <v>28.6</v>
       </c>
       <c r="T17" t="n">
         <v>41.5</v>
       </c>
       <c r="U17" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W17" t="n">
         <v>8.199999999999999</v>
@@ -3462,19 +3529,19 @@
         <v>5</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.2</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.3</v>
+        <v>-2.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3489,7 +3556,7 @@
         <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>2</v>
@@ -3498,13 +3565,13 @@
         <v>27</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AN17" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
         <v>16</v>
@@ -3522,22 +3589,22 @@
         <v>28</v>
       </c>
       <c r="AT17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" t="n">
         <v>21</v>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>0.512</v>
+        <v>0.525</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
@@ -3599,7 +3666,7 @@
         <v>81.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L18" t="n">
         <v>6.8</v>
@@ -3608,7 +3675,7 @@
         <v>20.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.337</v>
+        <v>0.335</v>
       </c>
       <c r="O18" t="n">
         <v>20.3</v>
@@ -3620,19 +3687,19 @@
         <v>0.772</v>
       </c>
       <c r="R18" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S18" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T18" t="n">
-        <v>44.2</v>
+        <v>44.5</v>
       </c>
       <c r="U18" t="n">
         <v>19</v>
       </c>
       <c r="V18" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W18" t="n">
         <v>7.3</v>
@@ -3647,43 +3714,43 @@
         <v>18.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>27</v>
       </c>
       <c r="AI18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK18" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>22</v>
       </c>
       <c r="AL18" t="n">
         <v>12</v>
       </c>
       <c r="AM18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN18" t="n">
         <v>15</v>
@@ -3710,16 +3777,16 @@
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW18" t="n">
         <v>19</v>
       </c>
       <c r="AX18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ18" t="n">
         <v>7</v>
@@ -3728,10 +3795,10 @@
         <v>3</v>
       </c>
       <c r="BB18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -3760,85 +3827,85 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" t="n">
         <v>27</v>
       </c>
       <c r="G19" t="n">
-        <v>0.341</v>
+        <v>0.325</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="J19" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.423</v>
+        <v>0.424</v>
       </c>
       <c r="L19" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M19" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.349</v>
+        <v>0.353</v>
       </c>
       <c r="O19" t="n">
         <v>17.1</v>
       </c>
       <c r="P19" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R19" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="S19" t="n">
-        <v>27.8</v>
+        <v>27.5</v>
       </c>
       <c r="T19" t="n">
-        <v>39.7</v>
+        <v>39.3</v>
       </c>
       <c r="U19" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V19" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W19" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.5</v>
+        <v>92.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.5</v>
+        <v>-6.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="n">
         <v>24</v>
@@ -3847,7 +3914,7 @@
         <v>27</v>
       </c>
       <c r="AG19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH19" t="n">
         <v>27</v>
@@ -3868,19 +3935,19 @@
         <v>2</v>
       </c>
       <c r="AN19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR19" t="n">
         <v>13</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>10</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
@@ -3889,22 +3956,22 @@
         <v>29</v>
       </c>
       <c r="AU19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV19" t="n">
         <v>27</v>
       </c>
       <c r="AW19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX19" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AY19" t="n">
         <v>20</v>
       </c>
       <c r="AZ19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA19" t="n">
         <v>13</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" t="n">
-        <v>0.225</v>
+        <v>0.231</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,7 +4027,7 @@
         <v>34.5</v>
       </c>
       <c r="J20" t="n">
-        <v>78.7</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.438</v>
@@ -3972,28 +4039,28 @@
         <v>12.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.316</v>
+        <v>0.315</v>
       </c>
       <c r="O20" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="P20" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.748</v>
+        <v>0.744</v>
       </c>
       <c r="R20" t="n">
         <v>11.9</v>
       </c>
       <c r="S20" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="T20" t="n">
-        <v>41.9</v>
+        <v>42.2</v>
       </c>
       <c r="U20" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V20" t="n">
         <v>15.5</v>
@@ -4002,25 +4069,25 @@
         <v>7.3</v>
       </c>
       <c r="X20" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>88.5</v>
+        <v>88.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>-5.5</v>
+        <v>-5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4053,22 +4120,22 @@
         <v>26</v>
       </c>
       <c r="AO20" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
         <v>20</v>
       </c>
       <c r="AR20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AS20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AU20" t="n">
         <v>20</v>
@@ -4089,7 +4156,7 @@
         <v>22</v>
       </c>
       <c r="BA20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -4124,61 +4191,61 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" t="n">
         <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G21" t="n">
-        <v>0.45</v>
+        <v>0.462</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>35.5</v>
+        <v>35.2</v>
       </c>
       <c r="J21" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.436</v>
+        <v>0.433</v>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M21" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="N21" t="n">
-        <v>0.311</v>
+        <v>0.309</v>
       </c>
       <c r="O21" t="n">
         <v>18.9</v>
       </c>
       <c r="P21" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R21" t="n">
         <v>11.3</v>
       </c>
       <c r="S21" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T21" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="U21" t="n">
-        <v>19.9</v>
+        <v>19.6</v>
       </c>
       <c r="V21" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="W21" t="n">
         <v>9.6</v>
@@ -4193,37 +4260,37 @@
         <v>21.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>96.7</v>
+        <v>96.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>19</v>
       </c>
       <c r="AF21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI21" t="n">
         <v>21</v>
       </c>
-      <c r="AG21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>20</v>
-      </c>
       <c r="AJ21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
         <v>10</v>
@@ -4241,19 +4308,19 @@
         <v>7</v>
       </c>
       <c r="AQ21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR21" t="n">
         <v>17</v>
       </c>
       <c r="AS21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT21" t="n">
         <v>19</v>
       </c>
       <c r="AU21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AV21" t="n">
         <v>29</v>
@@ -4262,7 +4329,7 @@
         <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY21" t="n">
         <v>18</v>
@@ -4274,10 +4341,10 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" t="n">
         <v>31</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.775</v>
+        <v>0.795</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4333,40 +4400,40 @@
         <v>6.9</v>
       </c>
       <c r="M22" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="N22" t="n">
-        <v>0.34</v>
+        <v>0.343</v>
       </c>
       <c r="O22" t="n">
-        <v>21.9</v>
+        <v>22.2</v>
       </c>
       <c r="P22" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.796</v>
+        <v>0.799</v>
       </c>
       <c r="R22" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S22" t="n">
         <v>32.9</v>
       </c>
       <c r="T22" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U22" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="V22" t="n">
         <v>16.8</v>
       </c>
       <c r="W22" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X22" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="Y22" t="n">
         <v>4.7</v>
@@ -4375,16 +4442,16 @@
         <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>102</v>
+        <v>102.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4393,7 +4460,7 @@
         <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
         <v>18</v>
@@ -4411,7 +4478,7 @@
         <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AN22" t="n">
         <v>14</v>
@@ -4426,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4435,19 +4502,19 @@
         <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ22" t="n">
         <v>18</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>2.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4581,7 +4648,7 @@
         <v>13</v>
       </c>
       <c r="AI23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ23" t="n">
         <v>29</v>
@@ -4614,13 +4681,13 @@
         <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU23" t="n">
         <v>17</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
         <v>28</v>
@@ -4635,13 +4702,13 @@
         <v>6</v>
       </c>
       <c r="BA23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB23" t="n">
         <v>22</v>
       </c>
       <c r="BC23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -4670,61 +4737,61 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" t="n">
         <v>17</v>
       </c>
       <c r="G24" t="n">
-        <v>0.585</v>
+        <v>0.575</v>
       </c>
       <c r="H24" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J24" t="n">
-        <v>84</v>
+        <v>84.2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.449</v>
+        <v>0.447</v>
       </c>
       <c r="L24" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M24" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="N24" t="n">
         <v>0.366</v>
       </c>
       <c r="O24" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="P24" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.736</v>
+        <v>0.737</v>
       </c>
       <c r="R24" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S24" t="n">
         <v>33.1</v>
       </c>
       <c r="T24" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U24" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V24" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="W24" t="n">
         <v>8.5</v>
@@ -4733,31 +4800,31 @@
         <v>4.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z24" t="n">
         <v>17.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>94.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>6</v>
       </c>
       <c r="AF24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
         <v>22</v>
@@ -4769,16 +4836,16 @@
         <v>3</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4796,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
@@ -4811,7 +4878,7 @@
         <v>20</v>
       </c>
       <c r="AY24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ24" t="n">
         <v>3</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -4930,13 +4997,13 @@
         <v>-1.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
         <v>19</v>
       </c>
       <c r="AF25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG25" t="n">
         <v>19</v>
@@ -4954,31 +5021,31 @@
         <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
         <v>16</v>
       </c>
       <c r="AN25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP25" t="n">
         <v>29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS25" t="n">
         <v>11</v>
       </c>
       <c r="AT25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU25" t="n">
         <v>4</v>
@@ -4990,7 +5057,7 @@
         <v>26</v>
       </c>
       <c r="AX25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" t="n">
         <v>19</v>
       </c>
       <c r="F26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>0.475</v>
+        <v>0.487</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="J26" t="n">
-        <v>82.59999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K26" t="n">
         <v>0.448</v>
@@ -5061,40 +5128,40 @@
         <v>6.7</v>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.333</v>
+        <v>0.332</v>
       </c>
       <c r="O26" t="n">
         <v>17.1</v>
       </c>
       <c r="P26" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q26" t="n">
         <v>0.783</v>
       </c>
       <c r="R26" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="S26" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="T26" t="n">
-        <v>41.8</v>
+        <v>41.5</v>
       </c>
       <c r="U26" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="V26" t="n">
-        <v>14.4</v>
+        <v>14</v>
       </c>
       <c r="W26" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X26" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y26" t="n">
         <v>4.9</v>
@@ -5103,16 +5170,16 @@
         <v>20.4</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5127,22 +5194,22 @@
         <v>7</v>
       </c>
       <c r="AI26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ26" t="n">
         <v>6</v>
       </c>
       <c r="AK26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL26" t="n">
         <v>14</v>
       </c>
-      <c r="AL26" t="n">
-        <v>15</v>
-      </c>
       <c r="AM26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO26" t="n">
         <v>13</v>
@@ -5154,28 +5221,28 @@
         <v>4</v>
       </c>
       <c r="AR26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS26" t="n">
         <v>18</v>
       </c>
-      <c r="AS26" t="n">
-        <v>16</v>
-      </c>
       <c r="AT26" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AU26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV26" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY26" t="n">
         <v>12</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>11</v>
       </c>
       <c r="AZ26" t="n">
         <v>19</v>
@@ -5184,7 +5251,7 @@
         <v>11</v>
       </c>
       <c r="BB26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -5216,58 +5283,58 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" t="n">
         <v>26</v>
       </c>
       <c r="G27" t="n">
-        <v>0.35</v>
+        <v>0.333</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
       </c>
       <c r="I27" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="J27" t="n">
         <v>85.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.418</v>
+        <v>0.416</v>
       </c>
       <c r="L27" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M27" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.32</v>
+        <v>0.317</v>
       </c>
       <c r="O27" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="P27" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="R27" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="S27" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="T27" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="U27" t="n">
         <v>17.8</v>
-      </c>
-      <c r="P27" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="R27" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="S27" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="T27" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="U27" t="n">
-        <v>18</v>
       </c>
       <c r="V27" t="n">
         <v>14.9</v>
@@ -5276,25 +5343,25 @@
         <v>8.1</v>
       </c>
       <c r="X27" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y27" t="n">
         <v>6.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.8</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6.7</v>
+        <v>-7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5309,22 +5376,22 @@
         <v>18</v>
       </c>
       <c r="AI27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
         <v>1</v>
       </c>
       <c r="AK27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM27" t="n">
         <v>9</v>
       </c>
       <c r="AN27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
@@ -5333,34 +5400,34 @@
         <v>11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU27" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AV27" t="n">
         <v>14</v>
       </c>
       <c r="AW27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY27" t="n">
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" t="n">
         <v>26</v>
       </c>
       <c r="F28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>0.667</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
@@ -5416,67 +5483,67 @@
         <v>37.8</v>
       </c>
       <c r="J28" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.461</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M28" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.396</v>
+        <v>0.395</v>
       </c>
       <c r="O28" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P28" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.725</v>
+        <v>0.729</v>
       </c>
       <c r="R28" t="n">
         <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T28" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U28" t="n">
         <v>22.1</v>
       </c>
       <c r="V28" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W28" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X28" t="n">
         <v>4.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5494,7 +5561,7 @@
         <v>4</v>
       </c>
       <c r="AJ28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK28" t="n">
         <v>4</v>
@@ -5512,10 +5579,10 @@
         <v>21</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5524,7 +5591,7 @@
         <v>10</v>
       </c>
       <c r="AT28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU28" t="n">
         <v>5</v>
@@ -5539,13 +5606,13 @@
         <v>25</v>
       </c>
       <c r="AY28" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -5658,19 +5725,19 @@
         <v>-3.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AF29" t="n">
         <v>24</v>
       </c>
       <c r="AG29" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>26</v>
@@ -5679,7 +5746,7 @@
         <v>27</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
         <v>23</v>
@@ -5688,10 +5755,10 @@
         <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP29" t="n">
         <v>21</v>
@@ -5706,13 +5773,13 @@
         <v>12</v>
       </c>
       <c r="AT29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
         <v>12</v>
       </c>
       <c r="AV29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW29" t="n">
         <v>24</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" t="n">
         <v>19</v>
       </c>
       <c r="F30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>0.487</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
@@ -5780,10 +5847,10 @@
         <v>37.2</v>
       </c>
       <c r="J30" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K30" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L30" t="n">
         <v>3.7</v>
@@ -5798,25 +5865,25 @@
         <v>18.7</v>
       </c>
       <c r="P30" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R30" t="n">
         <v>12.7</v>
       </c>
       <c r="S30" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T30" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U30" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V30" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W30" t="n">
         <v>8.300000000000001</v>
@@ -5831,22 +5898,22 @@
         <v>22.2</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.9</v>
+        <v>-0.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE30" t="n">
         <v>17</v>
       </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG30" t="n">
         <v>17</v>
@@ -5861,7 +5928,7 @@
         <v>8</v>
       </c>
       <c r="AK30" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AL30" t="n">
         <v>30</v>
@@ -5879,28 +5946,28 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS30" t="n">
         <v>21</v>
       </c>
       <c r="AT30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW30" t="n">
         <v>9</v>
       </c>
       <c r="AX30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY30" t="n">
         <v>25</v>
@@ -5909,10 +5976,10 @@
         <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC30" t="n">
         <v>19</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6034,10 +6101,10 @@
         <v>28</v>
       </c>
       <c r="AH31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ31" t="n">
         <v>4</v>
@@ -6052,7 +6119,7 @@
         <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO31" t="n">
         <v>20</v>
@@ -6070,22 +6137,22 @@
         <v>24</v>
       </c>
       <c r="AT31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
       </c>
       <c r="AV31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-9-2011-12</t>
+          <t>2012-03-09</t>
         </is>
       </c>
     </row>
